--- a/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-5.xlsx
+++ b/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,32 +424,21 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>1.</t>
+          <t>Ukupan državni proračun</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Zemlja \nŠvicarska</t>
+          <t>49.679.912.000</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>70.217.921.000</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>za sport u \n3,47</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BDP-u</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -457,24 +446,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.</t>
+          <t>Hrvatski olimpijski odbor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>36.000.000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,072</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.000.000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0,043</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,24 +476,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.</t>
+          <t>Hrvatski sportski savez invalida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Velika Britanija</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>2.000.000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,004</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.000.000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0,003</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -507,24 +506,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.</t>
+          <t>Školski sport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Grčka</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>7.000.000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.000.000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,010</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,24 +536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.</t>
+          <t>Međunarodna sportska suradnja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Finska</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>700.000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.027.181</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -557,24 +566,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.</t>
+          <t>Državna nagrada «F.Bučar»</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Francuska</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1,10</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>300.000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -582,147 +596,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.</t>
+          <t>UKUPNO ZA SPORT,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Italija</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Švedska</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0,80</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mađarska</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0,60</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Slovenija</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0,60</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Danska</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Hrvatska</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0,30</t>
+          <t>46.000.000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,093</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.327.180</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,057</t>
         </is>
       </c>
     </row>
